--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1530293.833116209</v>
+        <v>-1532244.05894477</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>284.6150156022076</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>141.8337342669226</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>110.7719208596178</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.6249203329743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>355.0199013375527</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0.898273811096441</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>116.4814587683033</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>160.2491677474088</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>63.74752780992348</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>11.42298697363654</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>77.39042090546103</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.37301815329025</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>122.4686819962945</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>62.35304823392082</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498001</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>82.20191370677044</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>225.2975443034202</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>132.7170563065804</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>55.82324514292125</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>127.6691770542756</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>134.7144732959481</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>80.59358434299402</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>67.84064279592573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,7 +2716,7 @@
         <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857141</v>
       </c>
       <c r="E28" t="n">
         <v>78.30207251692852</v>
@@ -2761,7 +2761,7 @@
         <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T28" t="n">
         <v>153.4156709287486</v>
@@ -2953,7 +2953,7 @@
         <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857141</v>
       </c>
       <c r="E31" t="n">
         <v>78.30207251692852</v>
@@ -2968,7 +2968,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463105</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1448.576038264086</v>
+        <v>1881.655632321911</v>
       </c>
       <c r="C2" t="n">
-        <v>1079.613521323674</v>
+        <v>1512.693115381499</v>
       </c>
       <c r="D2" t="n">
-        <v>792.1236065739693</v>
+        <v>1154.427416774749</v>
       </c>
       <c r="E2" t="n">
-        <v>792.1236065739693</v>
+        <v>768.6391641765047</v>
       </c>
       <c r="F2" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1881.655632321911</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.715370239897</v>
+        <v>1881.655632321911</v>
       </c>
       <c r="Y2" t="n">
-        <v>1448.576038264086</v>
+        <v>1881.655632321911</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>506.1616404812942</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>819.7731851199076</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C5" t="n">
-        <v>819.7731851199076</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D5" t="n">
-        <v>461.5074865131571</v>
+        <v>914.0785435469074</v>
       </c>
       <c r="E5" t="n">
-        <v>75.71923391491282</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>68.77373316570934</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>54.85032910430025</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>54.85032910430025</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>819.7731851199076</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,34 +4653,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9727148150933</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9727148150933</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1349.994571975716</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>991.7288733689657</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>605.9406207707214</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>598.9951200215179</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.008090792599</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1718.957088916128</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124031</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124031</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>81.59249510651622</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="W10" t="n">
-        <v>81.59249510651622</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>310.316607876582</v>
+        <v>517.9294177607285</v>
       </c>
       <c r="C13" t="n">
-        <v>310.316607876582</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>160.1999684642463</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>160.1999684642463</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>160.1999684642463</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>160.1999684642463</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688056</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799355</v>
+        <v>507.4972331799348</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471183</v>
+        <v>779.0639759471176</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585745</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557901</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771459</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570727</v>
+        <v>1209.787631771459</v>
       </c>
       <c r="W13" t="n">
-        <v>531.1091870201121</v>
+        <v>920.3704617344983</v>
       </c>
       <c r="X13" t="n">
-        <v>531.1091870201121</v>
+        <v>920.3704617344983</v>
       </c>
       <c r="Y13" t="n">
-        <v>310.316607876582</v>
+        <v>699.5778825909682</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5303,10 +5303,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5355,16 +5355,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>940.1463453738957</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.900558318119</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C16" t="n">
-        <v>441.900558318119</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D16" t="n">
-        <v>291.7839189057833</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>291.7839189057833</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>960.3478799611183</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>960.3478799611183</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>960.3478799611183</v>
       </c>
       <c r="X16" t="n">
-        <v>441.900558318119</v>
+        <v>732.358329063101</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.900558318119</v>
+        <v>732.358329063101</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,25 +5595,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>399.4500457733748</v>
+        <v>472.197537898503</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>472.197537898503</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>472.197537898503</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>472.197537898503</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5704,19 +5704,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227918</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169049</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W19" t="n">
-        <v>620.2426249169049</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="X19" t="n">
-        <v>620.2426249169049</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="Y19" t="n">
-        <v>399.4500457733748</v>
+        <v>653.8460027287427</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5795,7 +5795,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>303.4575213834695</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>550.2226492899335</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>857.5427825698952</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>549.3807322743211</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="C22" t="n">
-        <v>549.3807322743211</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D22" t="n">
-        <v>549.3807322743211</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>401.467638691928</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
         <v>265.3924131404652</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141521</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W22" t="n">
-        <v>731.0291971045608</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X22" t="n">
-        <v>731.0291971045608</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y22" t="n">
-        <v>731.0291971045608</v>
+        <v>692.3809108364826</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1088.787142923176</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1396.107276203138</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1725.969903867171</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>731.3351829786183</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C25" t="n">
-        <v>562.3990000507114</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383756</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="X25" t="n">
-        <v>981.5095496229244</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="Y25" t="n">
-        <v>912.983647808858</v>
+        <v>644.1080300429516</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>462.7283310300498</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
         <v>478.0475988506726</v>
@@ -6424,10 +6424,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6461,13 +6461,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6601,19 +6601,19 @@
         <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,34 +6683,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6938,7 +6938,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504507</v>
@@ -7090,7 +7090,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7117,13 +7117,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045204</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1088.787142923176</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229663</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7497,19 +7497,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7546,34 +7546,34 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,13 +7588,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8778,13 +8778,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>124.340078086323</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>73.64859338270691</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>145.2351313103792</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>297.2466435761025</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>230.7151863772035</v>
+        <v>165.9802687929767</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,25 +9480,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>15.83804904622849</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>43.6598726146247</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>169.2863157167187</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>176.717654749845</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>134.4977453535108</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>29.47535963978268</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>369.0893880493729</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>295.3773510571272</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,22 +11145,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>93.88676507992579</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>20.02693530713587</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>238.4690478577952</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22723,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>50.80735538553398</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.95973301912045</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>44.77813910233328</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>86.56078013361531</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,16 +23464,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>63.2191343161608</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>60.9398080951571</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.52976479204742</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>89.59780288000999</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>39.57764404435224</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>10.70657472698315</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>99.23839583894328</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.7440105561691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96832.57803770929</v>
+        <v>96832.5780377093</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26326,34 +26326,34 @@
         <v>97757.26493442722</v>
       </c>
       <c r="G2" t="n">
-        <v>97757.26493442721</v>
+        <v>97757.26493442719</v>
       </c>
       <c r="H2" t="n">
         <v>97757.26493442721</v>
       </c>
       <c r="I2" t="n">
-        <v>97757.26493442721</v>
+        <v>97757.26493442722</v>
       </c>
       <c r="J2" t="n">
         <v>102630.2212330356</v>
       </c>
       <c r="K2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="L2" t="n">
         <v>102630.2212330356</v>
-      </c>
-      <c r="L2" t="n">
-        <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330356</v>
       </c>
       <c r="N2" t="n">
+        <v>102630.2212330356</v>
+      </c>
+      <c r="O2" t="n">
         <v>102630.2212330355</v>
       </c>
-      <c r="O2" t="n">
-        <v>102630.2212330356</v>
-      </c>
       <c r="P2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963055</v>
+        <v>230928.7312963054</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,28 +26427,28 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.66962143914</v>
+      </c>
+      <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="G4" t="n">
-        <v>15045.66962143911</v>
-      </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="K4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275956</v>
+      </c>
+      <c r="M4" t="n">
         <v>37464.45686275957</v>
-      </c>
-      <c r="M4" t="n">
-        <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275957</v>
@@ -26488,7 +26488,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
@@ -26497,7 +26497,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706296.5066771947</v>
+        <v>-706412.4595411014</v>
       </c>
       <c r="C6" t="n">
         <v>-137003.8150815967</v>
@@ -26528,40 +26528,40 @@
         <v>-137003.8150815967</v>
       </c>
       <c r="E6" t="n">
-        <v>-534435.7671126245</v>
+        <v>-534533.2262385967</v>
       </c>
       <c r="F6" t="n">
-        <v>-9275.730635728512</v>
+        <v>-9373.18976170072</v>
       </c>
       <c r="G6" t="n">
-        <v>-9275.730635728527</v>
+        <v>-9373.189761700691</v>
       </c>
       <c r="H6" t="n">
-        <v>-9275.730635728527</v>
+        <v>-9373.189761700705</v>
       </c>
       <c r="I6" t="n">
-        <v>-9275.730635728512</v>
+        <v>-9373.189761700676</v>
       </c>
       <c r="J6" t="n">
-        <v>-263478.0727460549</v>
+        <v>-263478.0727460548</v>
       </c>
       <c r="K6" t="n">
-        <v>-32549.34144974941</v>
+        <v>-32549.34144974942</v>
       </c>
       <c r="L6" t="n">
-        <v>-32549.34144974942</v>
+        <v>-32549.34144974939</v>
       </c>
       <c r="M6" t="n">
         <v>-167350.3566835865</v>
       </c>
       <c r="N6" t="n">
-        <v>-32549.34144974942</v>
+        <v>-32549.34144974939</v>
       </c>
       <c r="O6" t="n">
         <v>-87054.85355346199</v>
       </c>
       <c r="P6" t="n">
-        <v>-32549.34144974942</v>
+        <v>-32549.34144974945</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26756,7 +26756,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26765,7 +26765,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26774,7 +26774,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>50.04109071133946</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>265.0423114747889</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,16 +27588,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>26.91046873470907</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.0330424337648</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>29.95250387826587</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>91.88847557641921</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>350.0366422108715</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>358.3081137048325</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>174.747222418367</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>198.3366372357469</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28272,10 +28272,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="L13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35498,13 +35498,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>457.5346514843358</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>356.012295623815</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35568,10 +35568,10 @@
         <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.702428529909</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799276</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>394.4928362664036</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>630.4412169741155</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
@@ -35963,13 +35963,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>541.1395634276697</v>
+        <v>476.4046458434429</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,13 +35978,13 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>166.4134876341677</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>354.084249665091</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>418.5440206727429</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>327.2930933377842</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36686,13 +36686,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36920,19 +36920,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>416.8614475946189</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37309,7 +37309,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221117</v>
@@ -37385,7 +37385,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37394,19 +37394,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>702.2839614473859</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>544.6350560131515</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>404.3111421303921</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
